--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2326744.248665421</v>
+        <v>2319727.233773709</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>788556.6518147354</v>
+        <v>621902.3573519331</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>209.7165034419968</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>201.8490979649067</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>156.1271626621471</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>101.7806877295494</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>17.65675159345429</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>287.8888439977528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>61.20620869185552</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.66075074687603</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>237.4552014283708</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>56.49495139346456</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>30.28266751616624</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>225.3547008904297</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>148.7416974947219</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896922</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>122.6519788371606</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>194.6193727018218</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.140727309098</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>93.11384720807509</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>17.19837049413448</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2611,13 +2611,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498018</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>92.54538492870967</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>149.3729605630658</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>33.34894101366427</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.9249921747067</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>125.0009230777864</v>
+        <v>24.90641453046115</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>285.2071576976366</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>43.1735284891727</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8295759545810619</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1018.106519274536</v>
+        <v>1198.22326060983</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>829.2607436694179</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>829.2607436694179</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>829.2607436694179</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,13 +4327,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224079</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6471865296039</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W4" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6471865296039</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6471865296039</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>632.3182666762915</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762915</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>1381.388493300343</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4582,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.918106740413</v>
+        <v>1739.654191907094</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.1723320447965</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>319.1723320447965</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,7 +4734,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4743,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750362</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750362</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>500.8207968750362</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.8207968750362</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1603.407129497229</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2640.083483550076</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.546461473041</v>
+        <v>2309.020596206506</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.546461473041</v>
+        <v>1956.251940936392</v>
       </c>
       <c r="X8" t="n">
-        <v>1993.546461473041</v>
+        <v>1582.786182675312</v>
       </c>
       <c r="Y8" t="n">
-        <v>1603.407129497229</v>
+        <v>1192.6468506995</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>559.1928012785276</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>411.2797076961344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704857</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>1002.792923427375</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M12" t="n">
-        <v>1771.161069819836</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N12" t="n">
-        <v>2115.681725457454</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O12" t="n">
-        <v>2364.435139541416</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2547.078617154767</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>355.6416303362487</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C13" t="n">
-        <v>355.6416303362487</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6416303362487</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585751</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347413</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347413</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1047.499844346979</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>758.0826743100185</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>758.0826743100185</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y13" t="n">
-        <v>537.2900951664884</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>1002.792923427375</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>1468.582150686776</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N15" t="n">
-        <v>1813.102806324393</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.642871543091</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.943493278838</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>221.1079791745895</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C16" t="n">
-        <v>221.1079791745895</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>221.1079791745895</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609671</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550802</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181196</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X16" t="n">
-        <v>441.9005583181196</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y16" t="n">
-        <v>221.1079791745895</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5506,25 +5506,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>246.2867756623458</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>246.2867756623458</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>754.9984739765637</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="N18" t="n">
-        <v>1559.410052240715</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O18" t="n">
         <v>1808.163466324677</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687014</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.867621687014</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>1009.867621687014</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>1009.867621687014</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,25 +5773,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2626.176921308641</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3240.07399106553</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>4008.442137457992</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="N21" t="n">
-        <v>4338.304765122024</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O21" t="n">
-        <v>4617.844830340721</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>302.8060739576061</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>302.8060739576061</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>302.8060739576061</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5940,22 +5940,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2366688293934</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W22" t="n">
-        <v>933.2366688293934</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X22" t="n">
-        <v>705.247117931376</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>484.4545387878459</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5986,10 +5986,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1942790685366</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1743.605857332687</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.8045051785811</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>358.8683222506741</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1481.544179149686</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1481.544179149686</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>1226.859690943799</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W25" t="n">
-        <v>937.4425209068381</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X25" t="n">
-        <v>709.4529700088208</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y25" t="n">
-        <v>709.4529700088208</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,28 +6211,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>738.0704661731477</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1506.438612565609</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1548.780040143415</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>713.5778697504956</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1405.436083761226</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1405.436083761226</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1405.436083761226</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>1116.018913724265</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1116.018913724265</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>895.2263345807353</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6463,46 +6463,46 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>405.9968384298954</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L30" t="n">
-        <v>1019.893908186784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M30" t="n">
-        <v>1019.893908186784</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.414563824402</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O30" t="n">
-        <v>2033.878325127062</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>807.0580565471723</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>656.1762782006411</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
@@ -6630,7 +6630,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>988.7065213774121</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>754.8724882112627</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1075.207807740965</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.370314660465</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.6350999123426</v>
+        <v>446.7290208898044</v>
       </c>
       <c r="C34" t="n">
-        <v>247.6350999123426</v>
+        <v>277.7928379618975</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123426</v>
+        <v>277.7928379618975</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>277.7928379618975</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>130.9028904639871</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247824</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765191</v>
+        <v>964.1357418247824</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706323</v>
+        <v>964.1357418247824</v>
       </c>
       <c r="W34" t="n">
-        <v>247.6350999123426</v>
+        <v>674.7185717878217</v>
       </c>
       <c r="X34" t="n">
-        <v>247.6350999123426</v>
+        <v>446.7290208898044</v>
       </c>
       <c r="Y34" t="n">
-        <v>247.6350999123426</v>
+        <v>446.7290208898044</v>
       </c>
     </row>
     <row r="35">
@@ -6916,49 +6916,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,22 +7019,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>425.1801429737989</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>671.945270880263</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>671.945270880263</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1476.356849144414</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1117.347795643215</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="C37" t="n">
-        <v>948.4116127153086</v>
+        <v>847.3060485260912</v>
       </c>
       <c r="D37" t="n">
         <v>822.1480540508779</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1298.996260473455</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>1298.996260473455</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X37" t="n">
-        <v>1298.996260473455</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y37" t="n">
-        <v>1298.996260473455</v>
+        <v>1016.242231453998</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7198,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>738.0704661731477</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1506.438612565609</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>2310.85019082976</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347409</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>1020.446367141522</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>732.358329063101</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>732.358329063101</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>732.358329063101</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>316.1484188593363</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>546.1115247276855</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1314.479671120147</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1659.000326757765</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471228</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.60808497467</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980067</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347412</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609701</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550832</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>687.7081036185451</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>687.7081036185451</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.7081036185451</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="44">
@@ -7645,7 +7645,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7654,22 +7654,22 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>263.5382936126483</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>877.4353633695371</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1197.770682899239</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1542.291338536857</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2135.190598349773</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.158304963777</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.158304963777</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1043.47381675789</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1043.47381675789</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>815.4842658598729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>594.6916867163428</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8789,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119827</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9242,22 +9242,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>27.63358565056808</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>90.57138649447495</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>174.1108308487934</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>12.69915672635432</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>28.65713740568984</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11153,16 +11153,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>26.78294243339835</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>69.84295585737286</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>23.78198380940857</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23706,13 +23706,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>23.96528065027303</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.44392604299682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>53.32011543849408</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>204.3491905642548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037963</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>129.0021761296796</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>17.87386053556199</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986227</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>133.1446274497133</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>5.598006161884257</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>23.614549940426</v>
+        <v>123.7090584877512</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25371,13 +25371,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.315840638954398</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>243.3494698474183</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7179851038082</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="H2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
         <v>527889.230645907</v>
@@ -26352,10 +26352,10 @@
         <v>527889.230645907</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.370099883548738e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.370099883548738e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.139180619</v>
-      </c>
       <c r="E4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758369</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
@@ -26441,25 +26441,25 @@
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.793690575822</v>
+        <v>787.793690575832</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="N4" t="n">
-        <v>787.7936905758696</v>
-      </c>
       <c r="O4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="C5" t="n">
-        <v>82859.07806340946</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-257682.9018001815</v>
+        <v>-257682.901800182</v>
       </c>
       <c r="C6" t="n">
-        <v>332284.9774143628</v>
+        <v>332284.9774143627</v>
       </c>
       <c r="D6" t="n">
-        <v>332284.9774143624</v>
+        <v>332284.9774143625</v>
       </c>
       <c r="E6" t="n">
-        <v>-90045.92547028168</v>
+        <v>-91020.51673000304</v>
       </c>
       <c r="F6" t="n">
-        <v>435114.1110066145</v>
+        <v>434139.5197468926</v>
       </c>
       <c r="G6" t="n">
-        <v>435114.1110066146</v>
+        <v>434139.5197468927</v>
       </c>
       <c r="H6" t="n">
-        <v>435114.1110066149</v>
+        <v>434139.519746893</v>
       </c>
       <c r="I6" t="n">
-        <v>435114.1110066143</v>
+        <v>434139.5197468927</v>
       </c>
       <c r="J6" t="n">
-        <v>258690.8918140216</v>
+        <v>257716.3005542999</v>
       </c>
       <c r="K6" t="n">
-        <v>435114.1110066145</v>
+        <v>434139.5197468929</v>
       </c>
       <c r="L6" t="n">
-        <v>435114.1110066145</v>
+        <v>434139.519746893</v>
       </c>
       <c r="M6" t="n">
-        <v>300313.0957727772</v>
+        <v>299338.5045130556</v>
       </c>
       <c r="N6" t="n">
-        <v>435114.1110066145</v>
+        <v>434139.5197468929</v>
       </c>
       <c r="O6" t="n">
-        <v>435114.1110066146</v>
+        <v>434139.5197468931</v>
       </c>
       <c r="P6" t="n">
-        <v>435114.1110066146</v>
+        <v>434139.5197468927</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26819,7 +26819,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173.0173382214838</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>205.0269477768047</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>11.11965843648076</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594878</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>364.2736184788075</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>98.34909465830083</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>87.40926432635683</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27827,16 +27827,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>186.6211234951017</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>127.8176903426368</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>194.7292161148247</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>115.138380506765</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538051777</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.042903883718917e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28286,7 +28286,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>4.619001477597825e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.928137092044911e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29480,7 +29480,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-3.460345829981158e-12</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.104943754957264e-12</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29909,7 +29909,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-2.156484740168153e-12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-3.632298752070436e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30650,7 +30650,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>3.487817442267745e-12</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -31047,43 +31047,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>86.4344768999344</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31399,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31615,10 +31615,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392718</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>245.2687781552867</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31861,16 +31861,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.172050210142856</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>146.9231391209083</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>380.4309478731437</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>190.2791704894102</v>
+        <v>201.5176914958845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,28 +32554,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>348.9381740704318</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32712,7 +32712,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
         <v>526.796267130444</v>
@@ -32788,31 +32788,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33025,31 +33025,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,34 +33259,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>17.27372197920178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,34 +33496,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>230.9513649311941</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,34 +33733,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>160.3880598289535</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,34 +34207,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304423</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,34 +34444,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>347.6220663928827</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>593.2694404155069</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.26756385997044</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206075</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>470.4941689488899</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>728.431610133364</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.556183571462</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081106</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>513.8502003173918</v>
+        <v>525.0887213238661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.556183571462</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>672.5092038984134</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>234.7270005820928</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>372.9350887355831</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>42.76911876546006</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>143.8975200174214</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>578.9520271914143</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006117972</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>163.2745953142936</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>17.79181538450904</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>179.2325759936291</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789761</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>598.8881412251678</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2319727.233773709</v>
+        <v>2324666.496622741</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>621902.3573519331</v>
+        <v>569380.0034505511</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>201.8490979649067</v>
+        <v>84.33604402022206</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X4" t="n">
-        <v>101.7806877295494</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>17.65675159345429</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>37.35930701763376</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>99.66075074687603</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>339.7234916038045</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>56.49495139346456</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295491</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>45.21952718910645</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.7416974947219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>22.72490415881805</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.6193727018218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>98.17677184786677</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>87.90024861273417</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498018</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>36.59669811656386</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404423</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>33.34894101366427</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.90641453046115</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>122.65197883716</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>28.79214306463528</v>
       </c>
       <c r="U40" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>132.9637733548212</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1198.22326060983</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C2" t="n">
-        <v>829.2607436694179</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="D2" t="n">
-        <v>829.2607436694179</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="E2" t="n">
-        <v>829.2607436694179</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1584.823100673951</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064346</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1739.654191907094</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C5" t="n">
-        <v>1739.654191907094</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>1381.388493300343</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4564,13 +4564,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4582,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520779</v>
+        <v>2659.412417263037</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520779</v>
+        <v>2405.650631901128</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2074.587744557557</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907094</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.654191907094</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y5" t="n">
-        <v>1739.654191907094</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598709</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,7 +4734,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4743,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600565</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600565</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600565</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U7" t="n">
-        <v>598.044640063212</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V7" t="n">
-        <v>343.3601518573251</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806.0470106353782</v>
+        <v>808.083928634017</v>
       </c>
       <c r="C8" t="n">
-        <v>806.0470106353782</v>
+        <v>808.083928634017</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>808.083928634017</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>808.083928634017</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>397.0980238444094</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2640.083483550076</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2309.020596206506</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>1956.251940936392</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X8" t="n">
-        <v>1582.786182675312</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y8" t="n">
-        <v>1192.6468506995</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4889,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M12" t="n">
-        <v>1604.839867667473</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N12" t="n">
-        <v>2192.176613678825</v>
+        <v>1835.861059011027</v>
       </c>
       <c r="O12" t="n">
         <v>2440.930027762787</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.1367719529251</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>289.7833290482027</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>142.8933815502924</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5235,16 +5235,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344999</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3809108364826</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>542.1367719529251</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.1367719529251</v>
+        <v>993.2877828087275</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>1221.277333706745</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344999</v>
+        <v>993.2877828087275</v>
       </c>
       <c r="Y16" t="n">
-        <v>723.7852367831648</v>
+        <v>993.2877828087275</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5518,13 +5518,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5557,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M18" t="n">
-        <v>1808.163466324677</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="N18" t="n">
-        <v>1808.163466324677</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O18" t="n">
         <v>1808.163466324677</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>795.449652310468</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>626.5134693825611</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1954.109744073479</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1954.109744073479</v>
+        <v>2234.893232091767</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>799.8610847926847</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>630.9249018647778</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>480.808262452442</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>332.8951688700489</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>186.0052213721385</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324574</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954967</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,16 +5974,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,13 +6001,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1336.117678709276</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1046.700508672316</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,64 +6211,64 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6417,19 +6417,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6460,34 +6460,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6499,7 +6499,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
@@ -6539,19 +6539,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>334.288126757867</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N30" t="n">
         <v>1138.699705022018</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,16 +6721,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,19 +6767,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
         <v>508.1073603047985</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>446.7290208898044</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>277.7928379618975</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>277.7928379618975</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>277.7928379618975</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>130.9028904639871</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035277</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247824</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247824</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>964.1357418247824</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>674.7185717878217</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>446.7290208898044</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>446.7290208898044</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,40 +6916,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,16 +7016,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.242231453998</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="C37" t="n">
-        <v>847.3060485260912</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>1244.231782352015</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>1016.242231453998</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y37" t="n">
-        <v>1016.242231453998</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7174,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1469.833297765342</v>
       </c>
       <c r="U40" t="n">
-        <v>1271.749344574921</v>
+        <v>1180.7046589789</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369034</v>
+        <v>926.0201707730128</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7642,25 +7642,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>875.5607799144661</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>875.5607799144661</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -9248,16 +9248,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -10199,7 +10199,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417972</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>121.2740412742711</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>69.84295585737286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>263.798094177773</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>23.96528065027303</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>50.43870117034558</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,16 +23943,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>103.0576765518773</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>78.59331985064341</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>249.6406542820135</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338574</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>133.1446274497133</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>123.7090584877512</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>23.7819838094092</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25602,10 +25602,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>192.755417993754</v>
       </c>
       <c r="U40" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>119.1738699690068</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="F2" t="n">
         <v>527889.2306459068</v>
@@ -26331,7 +26331,7 @@
         <v>527889.2306459069</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
         <v>527889.2306459069</v>
@@ -26340,22 +26340,22 @@
         <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="M2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="N2" t="n">
+        <v>527889.2306459066</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="N2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459072</v>
-      </c>
       <c r="P2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
@@ -26435,22 +26435,22 @@
         <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.793690575832</v>
+        <v>787.7936905759102</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-257682.901800182</v>
+        <v>-257682.9018001814</v>
       </c>
       <c r="C6" t="n">
-        <v>332284.9774143627</v>
+        <v>332284.9774143626</v>
       </c>
       <c r="D6" t="n">
         <v>332284.9774143625</v>
       </c>
       <c r="E6" t="n">
-        <v>-91020.51673000304</v>
+        <v>-90143.38459625382</v>
       </c>
       <c r="F6" t="n">
-        <v>434139.5197468926</v>
+        <v>435016.6518806421</v>
       </c>
       <c r="G6" t="n">
-        <v>434139.5197468927</v>
+        <v>435016.6518806422</v>
       </c>
       <c r="H6" t="n">
-        <v>434139.519746893</v>
+        <v>435016.6518806422</v>
       </c>
       <c r="I6" t="n">
-        <v>434139.5197468927</v>
+        <v>435016.6518806422</v>
       </c>
       <c r="J6" t="n">
-        <v>257716.3005542999</v>
+        <v>258593.4326880493</v>
       </c>
       <c r="K6" t="n">
-        <v>434139.5197468929</v>
+        <v>435016.6518806421</v>
       </c>
       <c r="L6" t="n">
-        <v>434139.519746893</v>
+        <v>435016.6518806425</v>
       </c>
       <c r="M6" t="n">
-        <v>299338.5045130556</v>
+        <v>300215.6366468054</v>
       </c>
       <c r="N6" t="n">
-        <v>434139.5197468929</v>
+        <v>435016.651880642</v>
       </c>
       <c r="O6" t="n">
-        <v>434139.5197468931</v>
+        <v>435016.6518806422</v>
       </c>
       <c r="P6" t="n">
-        <v>434139.5197468927</v>
+        <v>435016.6518806425</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>205.0269477768047</v>
+        <v>322.5400017214894</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X4" t="n">
-        <v>123.9289676594878</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>364.2736184788075</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>179.089013340024</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>186.6211234951017</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>74.06067841699047</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>194.7292161148247</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>46.8347852886633</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.806844538051777</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-2.156484740168153e-12</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31399,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31849,13 +31849,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>245.2687781552867</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>359.9147016846443</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>201.5176914958845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>288.9613021006076</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,13 +32560,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>348.9381740704318</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>392.6063366508803</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33274,7 +33274,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33286,13 +33286,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,16 +33438,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33508,7 +33508,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
         <v>392.6063366508803</v>
@@ -33523,13 +33523,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33982,7 +33982,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
         <v>392.6063366508803</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34219,7 +34219,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
         <v>392.6063366508803</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34456,7 +34456,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>392.6063366508803</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>593.2694404155069</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>611.1807765169294</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>525.0887213238661</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>636.9619643608278</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,13 +36208,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>672.5092038984134</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>740.6069989111005</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,10 +36682,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197789</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>740.6069989111005</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006117972</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,10 +37393,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>740.6069989111005</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>740.6069989111005</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>740.6069989111005</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
